--- a/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials-DONGLE01.xlsx
+++ b/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials-DONGLE01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\BENADUCE\Documents\GitHub\Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#PCB#\PRJ_Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4ECA0EE-053B-41BD-977C-DD185E415B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F027DE5-9DAB-4016-A48D-A025E9353BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7F567C25-DC0D-459F-B233-A990C0B427EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1BEFEE09-C36A-40B5-9F04-0CD6E768CCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DONGLE01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>Designator</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>732-4982-2-ND</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>824021</t>
+  </si>
+  <si>
+    <t>7V TVS</t>
+  </si>
+  <si>
+    <t>7V Clamp 15A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23-3</t>
+  </si>
+  <si>
+    <t>732-4468-1-ND</t>
+  </si>
+  <si>
+    <t>732-4468-2-ND</t>
   </si>
   <si>
     <t>J1</t>
@@ -835,8 +853,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D2BE29-9A8F-4FA0-ACD5-3409DF4B14E4}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E2B2B1-08D5-4B31-84FA-163204080A7B}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1082,60 +1100,60 @@
         <v>51</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>63</v>
@@ -1146,7 +1164,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>65</v>
@@ -1178,7 +1196,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>71</v>
@@ -1190,16 +1208,16 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>75</v>
@@ -1210,7 +1228,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>77</v>
@@ -1222,94 +1240,94 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>98</v>
@@ -1338,10 +1356,10 @@
         <v>103</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>104</v>
@@ -1373,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>110</v>
@@ -1402,10 +1420,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>116</v>
@@ -1437,42 +1455,42 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
@@ -1510,19 +1528,51 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>140</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
